--- a/subjects/resources/1/it_math/LectureWork1.xlsx
+++ b/subjects/resources/1/it_math/LectureWork1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\ИТ в математике\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_math\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Задание 3" sheetId="3" r:id="rId3"/>
     <sheet name="Задание 4" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,9 +142,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -186,7 +186,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -309,9 +308,13 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-068C-4683-BBEC-89FF844336AC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -358,7 +361,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -598,9 +600,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -650,7 +652,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -773,6 +774,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2375-437D-96F3-A4A880EA78B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -939,9 +945,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -983,7 +989,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1131,6 +1136,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1301-419F-A141-92E7C86883A7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1297,9 +1307,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1385,16 +1395,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1502,6 +1509,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-573C-472C-8BAE-E8D9F83776DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3987,9 +3999,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4027,7 +4039,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4099,7 +4111,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
